--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\doom.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6F000A93-29D1-4ABB-8E23-562EE4B8D6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D105A8B-1A52-40E4-A4F4-8FCD33594D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C52A83A-498F-4034-B537-DF930780D4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
   <si>
     <t>am_map.c</t>
   </si>
@@ -230,14 +231,220 @@
   </si>
   <si>
     <t>Lines</t>
+  </si>
+  <si>
+    <t>am_map.h</t>
+  </si>
+  <si>
+    <t>d_main.h</t>
+  </si>
+  <si>
+    <t>doomdata.h</t>
+  </si>
+  <si>
+    <t>dstrings.h</t>
+  </si>
+  <si>
+    <t>info.h</t>
+  </si>
+  <si>
+    <t>m_random.h</t>
+  </si>
+  <si>
+    <t>p_mobj.h</t>
+  </si>
+  <si>
+    <t>p_setup.h</t>
+  </si>
+  <si>
+    <t>p_tick.h</t>
+  </si>
+  <si>
+    <t>w_wad.h</t>
+  </si>
+  <si>
+    <t>d_englsh.h</t>
+  </si>
+  <si>
+    <t>hu_lib.h</t>
+  </si>
+  <si>
+    <t>i_sound.h</t>
+  </si>
+  <si>
+    <t>m_fixed.h</t>
+  </si>
+  <si>
+    <t>p_inter.h</t>
+  </si>
+  <si>
+    <t>r_draw.h</t>
+  </si>
+  <si>
+    <t>r_segs.h</t>
+  </si>
+  <si>
+    <t>s_sound.h</t>
+  </si>
+  <si>
+    <t>st_stuff.h</t>
+  </si>
+  <si>
+    <t>d_event.h</t>
+  </si>
+  <si>
+    <t>d_net.h</t>
+  </si>
+  <si>
+    <t>doomdef.h</t>
+  </si>
+  <si>
+    <t>f_finale.h</t>
+  </si>
+  <si>
+    <t>m_argv.h</t>
+  </si>
+  <si>
+    <t>m_swap.h</t>
+  </si>
+  <si>
+    <t>r_local.h</t>
+  </si>
+  <si>
+    <t>wi_stuff.h</t>
+  </si>
+  <si>
+    <t>d_french.h</t>
+  </si>
+  <si>
+    <t>d_player.h</t>
+  </si>
+  <si>
+    <t>hu_stuff.h</t>
+  </si>
+  <si>
+    <t>i_system.h</t>
+  </si>
+  <si>
+    <t>m_menu.h</t>
+  </si>
+  <si>
+    <t>p_local.h</t>
+  </si>
+  <si>
+    <t>p_pspr.h</t>
+  </si>
+  <si>
+    <t>p_spec.h</t>
+  </si>
+  <si>
+    <t>r_bsp.h</t>
+  </si>
+  <si>
+    <t>r_sky.h</t>
+  </si>
+  <si>
+    <t>tables.h</t>
+  </si>
+  <si>
+    <t>d_textur.h</t>
+  </si>
+  <si>
+    <t>doomstat.h</t>
+  </si>
+  <si>
+    <t>f_wipe.h</t>
+  </si>
+  <si>
+    <t>m_bbox.h</t>
+  </si>
+  <si>
+    <t>r_main.h</t>
+  </si>
+  <si>
+    <t>r_state.h</t>
+  </si>
+  <si>
+    <t>sounds.h</t>
+  </si>
+  <si>
+    <t>z_zone.h</t>
+  </si>
+  <si>
+    <t>d_items.h</t>
+  </si>
+  <si>
+    <t>d_think.h</t>
+  </si>
+  <si>
+    <t>doomtype.h</t>
+  </si>
+  <si>
+    <t>i_video.h</t>
+  </si>
+  <si>
+    <t>m_misc.h</t>
+  </si>
+  <si>
+    <t>p_saveg.h</t>
+  </si>
+  <si>
+    <t>r_data.h</t>
+  </si>
+  <si>
+    <t>v_video.h</t>
+  </si>
+  <si>
+    <t>d_ticcmd.h</t>
+  </si>
+  <si>
+    <t>g_game.h</t>
+  </si>
+  <si>
+    <t>i_net.h</t>
+  </si>
+  <si>
+    <t>m_cheat.h</t>
+  </si>
+  <si>
+    <t>r_defs.h</t>
+  </si>
+  <si>
+    <t>r_plane.h</t>
+  </si>
+  <si>
+    <t>r_things.h</t>
+  </si>
+  <si>
+    <t>st_lib.h</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Total lines</t>
+  </si>
+  <si>
+    <t>Total done</t>
+  </si>
+  <si>
+    <t>Percentage Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -265,8 +472,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,346 +789,1073 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC4A691-F9B4-45C0-9028-94401B2AF30A}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1349</v>
+      </c>
+      <c r="F2">
+        <f>SUM(B2:B125)</f>
+        <v>54640</v>
+      </c>
+      <c r="G2">
+        <f>SUMIFS(B2:B125,C2:C125,"Done")</f>
+        <v>376</v>
+      </c>
+      <c r="H2">
+        <f>G2/F2*100</f>
+        <v>0.68814055636896043</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B7">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B11">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B18">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>338</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B20">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B23">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B27">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B29">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B31">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B33">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B36">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B38">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B40">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B42">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B44">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B48">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B50">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B52">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B54">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B56">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B58">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B60">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B62">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B63">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B64">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B65">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B66">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B68">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B70">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B71">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B72">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B74">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B75">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B77">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B79">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>73</v>
+      </c>
+      <c r="B80">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B81">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B82">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B84">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B85">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B86">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B88">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B89">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>101</v>
+      </c>
+      <c r="B90">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B91">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>124</v>
+      </c>
+      <c r="B93">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B94">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="B97">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B98">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="B99">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B101">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>82</v>
+      </c>
+      <c r="B102">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B103">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B106">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>126</v>
+      </c>
+      <c r="B107">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B108">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="B110">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="B112">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>127</v>
+      </c>
+      <c r="B113">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="B114">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>84</v>
+      </c>
+      <c r="B115">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="B116">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>103</v>
+      </c>
+      <c r="B117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B118">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B120">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B122">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>92</v>
+      </c>
+      <c r="B123">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>41</v>
       </c>
+      <c r="B124">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>111</v>
+      </c>
+      <c r="B125">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A63">
-    <sortCondition ref="A2:A63"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A125">
+    <sortCondition ref="A2:A125"/>
   </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBE406-FFD2-4258-BB4C-8397A96315C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\doom.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D105A8B-1A52-40E4-A4F4-8FCD33594D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A96F915-9B56-45D3-A5F4-595422D0514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C52A83A-498F-4034-B537-DF930780D4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Status" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -792,7 +791,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,16 +1845,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DBE406-FFD2-4258-BB4C-8397A96315C9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\doom.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A96F915-9B56-45D3-A5F4-595422D0514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0978E37F-28E8-40AD-9673-3617F350157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C52A83A-498F-4034-B537-DF930780D4E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
   <si>
     <t>am_map.c</t>
   </si>
@@ -791,7 +791,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,11 +841,11 @@
       </c>
       <c r="G2">
         <f>SUMIFS(B2:B125,C2:C125,"Done")</f>
-        <v>376</v>
+        <v>598</v>
       </c>
       <c r="H2">
         <f>G2/F2*100</f>
-        <v>0.68814055636896043</v>
+        <v>1.0944363103953147</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -966,6 +966,9 @@
       </c>
       <c r="B17">
         <v>222</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/Status.xlsx
+++ b/Status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\doom.js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0978E37F-28E8-40AD-9673-3617F350157B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F263F945-7D7A-4E9F-B5D1-9E944BB46F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C52A83A-498F-4034-B537-DF930780D4E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
   <si>
     <t>am_map.c</t>
   </si>
@@ -791,7 +791,7 @@
   <dimension ref="A1:H125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,11 +841,11 @@
       </c>
       <c r="G2">
         <f>SUMIFS(B2:B125,C2:C125,"Done")</f>
-        <v>598</v>
+        <v>664</v>
       </c>
       <c r="H2">
         <f>G2/F2*100</f>
-        <v>1.0944363103953147</v>
+        <v>1.2152269399707174</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1015,6 +1015,9 @@
       </c>
       <c r="B22">
         <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
